--- a/数据库/数据库设计.xlsx
+++ b/数据库/数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="369">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1436,6 +1436,62 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信—群组表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hx_group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群主id，同用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1592,23 +1648,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1644,23 +1683,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1813,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F204"/>
+  <dimension ref="A2:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4022,6 +4044,76 @@
         <v>331</v>
       </c>
     </row>
+    <row r="207" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
